--- a/datasets/conductivity.xlsx
+++ b/datasets/conductivity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C424"/>
+  <dimension ref="A1:C415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,466 +847,466 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1126/science.aad3749</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sn.985Na.015Se (hole doped)   C axis</t>
+          <t>Cu2.1Mg0.9SnSe4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1038.7</v>
+        <v>489.92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cu2.1Mg0.9SnSe4</t>
+          <t>Cu3Sb0.86Bi0.14S4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>489.92</v>
+        <v>32.56230781</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1063/1.3682585</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cu3Sb0.86Bi0.14S4</t>
+          <t>Ba8Au6.10Si38.97</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>32.56230781</v>
+        <v>1620.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.3682585</t>
+          <t>http://doi.org/10.1038/s41598-017-05428-4</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ba8Au6.10Si38.97</t>
+          <t>Bi.05Sb1.5Te3</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1620.7</v>
+        <v>2.848e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://doi.org/10.1038/s41598-017-05428-4</t>
+          <t>https://doi.org/10.1039/C6TA08467B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bi.05Sb1.5Te3</t>
+          <t>Cu3Sb.8Bi.1Se4</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.848e-07</v>
+        <v>210240</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/C6TA08467B</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2017.02.182</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cu3Sb.8Bi.1Se4</t>
+          <t>Bi0.5Sb1.5Te2.25Se.75</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>210240</v>
+        <v>349.16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2017.02.182</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bi0.5Sb1.5Te2.25Se.75</t>
+          <t>Zr0.95Nb0.05NiSn</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>349.16</v>
+        <v>2965.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
+          <t>http://dx.doi.org/10.1002/adfm.201000970</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Zr0.95Nb0.05NiSn</t>
+          <t>Ca4.95Na0.05Al2Sb6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2965.2</v>
+        <v>30.12</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1002/adfm.201000970</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ca4.95Na0.05Al2Sb6</t>
+          <t>YbCd1.6Mg0.4Sb2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30.12</v>
+        <v>162.89</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2004.02.061</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>YbCd1.6Mg0.4Sb2</t>
+          <t>ZrNi0.76Co0.004Cu0.2Sn</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>162.89</v>
+        <v>114.16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2004.02.061</t>
+          <t>http://dx.doi.org/10.1016/j.jpcs.2004.01.010</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ZrNi0.76Co0.004Cu0.2Sn</t>
+          <t>Bi83Sb17</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>114.16</v>
+        <v>3852.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jpcs.2004.01.010</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2004.05.078</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bi83Sb17</t>
+          <t>Zr0.4Hf0.4Ti0.2NiSn</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3852.7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2004.05.078</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Zr0.4Hf0.4Ti0.2NiSn</t>
+          <t>Ti0.99Nb0.01NiSn</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>114</v>
+        <v>865.74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
+          <t>http://dx.doi.org/10.1016/S0038-1098(02)00555-0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ti0.99Nb0.01NiSn</t>
+          <t>La0.3Ca2.7Co4O9</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>865.74</v>
+        <v>16.776</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/S0038-1098(02)00555-0</t>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>La0.3Ca2.7Co4O9</t>
+          <t>Cu3Sb.96Sn.02Bi.02Se4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>16.776</v>
+        <v>319.8173061</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cu3Sb.96Sn.02Bi.02Se4</t>
+          <t>Cu2MgSnSe4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>319.8173061</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1109/ICT.2006.331291</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cu2MgSnSe4</t>
+          <t>CaYb0.05Mn0.95O3</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26.32</v>
+        <v>108.79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1109/ICT.2006.331291</t>
+          <t>http://dx.doi.org/10.1007/s11664-009-0815-2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CaYb0.05Mn0.95O3</t>
+          <t>Zn0.9925Al0.0075O</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>108.79</v>
+        <v>96.953</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s11664-009-0815-2</t>
+          <t>http://dx.doi.org/10.3390/ma10030251</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Zn0.9925Al0.0075O</t>
+          <t>BI.4Sb1.580Ge.020Te3</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>96.953</v>
+        <v>1499.7</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.3390/ma10030251</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BI.4Sb1.580Ge.020Te3</t>
+          <t>YbCd2Sb2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1499.7</v>
+        <v>455.19</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>YbCd2Sb2</t>
+          <t>Ca0.9Sb0.1MnO3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>455.19</v>
+        <v>2.1643</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ca0.9Sb0.1MnO3</t>
+          <t>YbCd1.2Mg0.8Sb2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.1643</v>
+        <v>156.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>YbCd1.2Mg0.8Sb2</t>
+          <t>NbCo2Sn</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>156.7</v>
+        <v>6825.1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Personal communication</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NbCo2Sn</t>
+          <t>WO2.722</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6825.1</v>
+        <v>15485</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Personal communication</t>
+          <t>http://www.jmst.org/EN/Y2009/V25/I04/0535</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WO2.722</t>
+          <t>Ca0.96La0.04MnO3</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15485</v>
+        <v>65.55</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>http://www.jmst.org/EN/Y2009/V25/I04/0535</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ca0.96La0.04MnO3</t>
+          <t>Cu0.015Bi0.5Sb1.475Te3</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>65.55</v>
+        <v>1778.602</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1021/acsami.8b06533</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cu0.015Bi0.5Sb1.475Te3</t>
+          <t>Bi2Te2.5Se0.6</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1778.602</v>
+        <v>1127.6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/acsami.8b06533</t>
+          <t>https://doi.org/10.1039/c2cc30318c</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Bi2Te2.5Se0.6</t>
+          <t>CuInTe2(annealed 3 Days)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1127.6</v>
+        <v>79.54000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/c2cc30318c</t>
+          <t>http://dx.doi.org/10.1007/s11664-009-0975-0</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CuInTe2(annealed 3 Days)</t>
+          <t>Mn1.3Mo6S8</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>79.54000000000001</v>
+        <v>1448.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s11664-009-0975-0</t>
+          <t>http://dx.doi.org/10.1007/s10854-011-0574-8</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mn1.3Mo6S8</t>
+          <t>WO3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1448.5</v>
+        <v>0.00071293</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s10854-011-0574-8</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2004.05.078</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>WO3</t>
+          <t>Zr0.3Hf0.3Ti0.4NiSn</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.00071293</v>
+        <v>118.25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2004.05.078</t>
+          <t>http://dx.doi.org/10.1016/S0038-1098(02)00555-0</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Zr0.3Hf0.3Ti0.4NiSn</t>
+          <t>La0.05Ca2.85Co3.8O8.55</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>118.25</v>
+        <v>24.523</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/S0038-1098(02)00555-0</t>
+          <t>http://dx.doi.org/10.1109/ICT.2006.331291</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>La0.05Ca2.85Co3.8O8.55</t>
+          <t>CaYb0.1Mn0.9O3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>24.523</v>
+        <v>256.46</v>
       </c>
     </row>
     <row r="63">
@@ -1317,2105 +1317,2105 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CaYb0.1Mn0.9O3</t>
+          <t>CaYb0.4Mn0.6O3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>256.46</v>
+        <v>65.703</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1109/ICT.2006.331291</t>
+          <t>http://dx.doi.org/10.1021/acsami.8b06533</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CaYb0.4Mn0.6O3</t>
+          <t>Bi2Te2.3I.1Se0.6</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>65.703</v>
+        <v>1837.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/acsami.8b06533</t>
+          <t>http://dx.doi.org/10.1063/1.3117943</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Bi2Te2.3I.1Se0.6</t>
+          <t>Sr2Ti0.8Nb0.2O4</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1837.1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.3117943</t>
+          <t>http://dx.doi.org/10.1007/s11664-009-0975-0</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sr2Ti0.8Nb0.2O4</t>
+          <t>Cu4.0Mo6S8</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>210</v>
+        <v>1202.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s11664-009-0975-0</t>
+          <t>https://doi.org/10.1002/adfm.200901817</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cu4.0Mo6S8</t>
+          <t>Ba8Ni1.90Ga8.04Ge36.06</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1202.3</v>
+        <v>523.58</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/adfm.200901817</t>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ba8Ni1.90Ga8.04Ge36.06</t>
+          <t>MgAg0.97Sb.98Pb.01</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>523.58</v>
+        <v>297.36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
+          <t>http://dx.doi.org/10.1016/S0038-1098(02)00555-0</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MgAg0.97Sb.98Pb.01</t>
+          <t>La0.45Ca2.55Co4O9</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>297.36</v>
+        <v>23.205</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/S0038-1098(02)00555-0</t>
+          <t>https://doi.org/10.1002/aenm.201502423</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>La0.45Ca2.55Co4O9</t>
+          <t>Bi.94Ca.02Pb.02CuSeO</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>23.205</v>
+        <v>200.0237472</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/aenm.201502423</t>
-        </is>
-      </c>
+      <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bi.94Ca.02Pb.02CuSeO</t>
+          <t>Mg0.96Li0.04Ag0.97Sb 0.99</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>200.0237472</v>
+        <v>686.8320166</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.ssc.2007.12.033</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mg0.96Li0.04Ag0.97Sb 0.99</t>
+          <t>In1.994Ge0.006O3</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>686.8320166</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/j.ssc.2007.12.033</t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>In1.994Ge0.006O3</t>
+          <t>W08</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1195</v>
+        <v>256.28</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1063/1.121747</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>Sr0.146Ga0.285Ge0.569</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>256.28</v>
+        <v>515.46</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.121747</t>
+          <t>https://doi.org/10.1021/ja111199y</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sr0.146Ga0.285Ge0.569</t>
+          <t>Ba0.10La0.05Yb0.07Co4Sb12</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>515.46</v>
+        <v>3095.2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/ja111199y</t>
+          <t>http://dx.doi.org/10.1039/c5ra28088e</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ba0.10La0.05Yb0.07Co4Sb12</t>
+          <t>(BiSbTe1.5Se1.5).997Ag.003</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3095.2</v>
+        <v>0.011994</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/c5ra28088e</t>
+          <t>http://dx.doi.org/10.1143/JJAP.39.L1127</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>(BiSbTe1.5Se1.5).997Ag.003</t>
+          <t>Ca2Co2O5</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.011994</v>
+        <v>681.0700000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1143/JJAP.39.L1127</t>
+          <t>http://dx.doi.org/10.1007/s11664-009-0815-2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ca2Co2O5</t>
+          <t>CuCr0.98Mg0.02O2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>681.0700000000001</v>
+        <v>5.0848</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s11664-009-0815-2</t>
+          <t>https://doi.org/10.1007/s11664-014-3075-8</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CuCr0.98Mg0.02O2</t>
+          <t>Cu2HgSnSe4</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5.0848</v>
+        <v>68.73943</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11664-014-3075-8</t>
+          <t>http://dx.doi.org/10.1016/j.jssc.2016.03.032</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cu2HgSnSe4</t>
+          <t>Bi2YO4Cu2Se1.9I.10</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>68.73943</v>
+        <v>174.0331492</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jssc.2016.03.032</t>
+          <t>http://dx.doi.org/10.1103/PhysRevB.80.115103</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Bi2YO4Cu2Se1.9I.10</t>
+          <t>CuRh0.96Mg0.04O2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>174.0331492</v>
+        <v>90.90900000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevB.80.115103</t>
+          <t>http://dx.doi.org/10.3390/ma10030251</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CuRh0.96Mg0.04O2</t>
+          <t>BI.4Sb1.590Ge.010Te3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>90.90900000000001</v>
+        <v>1090.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.3390/ma10030251</t>
+          <t>http://dx.doi.org/10.1088/1674-1056/26/1/017202</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BI.4Sb1.590Ge.010Te3</t>
+          <t>Bi.48SB1.52Te3+1%(MnSb2Se4)</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1090.4</v>
+        <v>984</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1088/1674-1056/26/1/017202</t>
+          <t>https://doi.org/10.1021/ic502055z</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Bi.48SB1.52Te3+1%(MnSb2Se4)</t>
+          <t>BaCu5.9SeTe6</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>984</v>
+        <v>0.0066418</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/ic502055z</t>
+          <t>http://doi.org/10.1038/s41598-017-05428-4</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BaCu5.9SeTe6</t>
+          <t>Bi.035Sb1.65Te3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.0066418</v>
+        <v>3.6433e-07</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://doi.org/10.1038/s41598-017-05428-4</t>
+          <t>http://dx.doi.org/10.1002/chin.200318015</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Bi.035Sb1.65Te3</t>
+          <t>Nd2CuO4</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3.6433e-07</v>
+        <v>0.3426</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1002/chin.200318015</t>
+          <t>http://dx.doi.org/10.1111/j.1551-2916.2010.03673.x</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nd2CuO4</t>
+          <t>CaGd0.98Mn0.02O3</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.3426</v>
+        <v>32.738</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1111/j.1551-2916.2010.03673.x</t>
-        </is>
-      </c>
+      <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CaGd0.98Mn0.02O3</t>
+          <t>Cu2.05Mg0.95SnSe4</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>32.738</v>
+        <v>145.73</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1088/1674-1056/26/1/017202</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cu2.05Mg0.95SnSe4</t>
+          <t>Bi.48SB1.52Te3+4%(MnSb2Se4)</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>145.73</v>
+        <v>551.5700000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1088/1674-1056/26/1/017202</t>
+          <t>http://dx.doi.org/10.1039/c0ee00517g</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Bi.48SB1.52Te3+4%(MnSb2Se4)</t>
+          <t>Ca3AlSb3</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>551.5700000000001</v>
+        <v>0.83403</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1039/c0ee00517g</t>
-        </is>
-      </c>
+      <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ca3AlSb3</t>
+          <t>Bi0.4Sb1.580Ge0.02Te3</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.83403</v>
+        <v>675.6756757000001</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>http://www.jstor.org/stable/2889796</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bi0.4Sb1.580Ge0.02Te3</t>
+          <t>LaFe3CoSb12</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>675.6756757000001</v>
+        <v>608.62</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>http://www.jstor.org/stable/2889796</t>
+          <t>http://dx.doi.org/10.1039/C1JM10827A</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LaFe3CoSb12</t>
+          <t>Mg2Si0.997Bi0.003</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>608.62</v>
+        <v>2049.2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/C1JM10827A</t>
+          <t>http://dx.doi.org/10.1016/j.jssc.2016.03.032</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mg2Si0.997Bi0.003</t>
+          <t>Bi2YO4Cu2Se1.85I.15</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2049.2</v>
+        <v>176.519337</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jssc.2016.03.032</t>
+          <t>http://dx.doi.org/10.3390/ma10030251</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bi2YO4Cu2Se1.85I.15</t>
+          <t>BI.4Sb1.6Te3</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>176.519337</v>
+        <v>943.4400000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.3390/ma10030251</t>
+          <t>http://dx.doi.org/10.1103/PhysRevB.81.125205</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BI.4Sb1.6Te3</t>
+          <t>La3Te3.8Sb0.2</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>943.4400000000001</v>
+        <v>1886.8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevB.81.125205</t>
+          <t>https://doi.org/10.1063/1.3103604</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>La3Te3.8Sb0.2</t>
+          <t>Cu2ZnSn.90In0.10Se4</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1886.8</v>
+        <v>0.0036087</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.3103604</t>
+          <t>http://dx.doi.org/10.1039/C1JM10827A</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cu2ZnSn.90In0.10Se4</t>
+          <t>Mg2Si0.999Bi0.001</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.0036087</v>
+        <v>691.5599999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/C1JM10827A</t>
+          <t>http://dx.doi.org/10.1021/acsami.8b06533</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Mg2Si0.999Bi0.001</t>
+          <t>Bi2Te2.4Se0.6</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>691.5599999999999</v>
+        <v>253.39</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/acsami.8b06533</t>
+          <t>http://dx.doi.org/10.1063/1.1480115</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Bi2Te2.4Se0.6</t>
+          <t>Ca2.4Na0.3Bi0.3Co4O9</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>253.39</v>
+        <v>106.87</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.1480115</t>
+          <t>https://doi.org/10.1016/j.intermet.2016.11.002</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ca2.4Na0.3Bi0.3Co4O9</t>
+          <t>BiSbTe</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>106.87</v>
+        <v>961.04</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.intermet.2016.11.002</t>
+          <t>http://dx.doi.org/10.1016/S0925-8388(01)01804-7</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BiSbTe</t>
+          <t>Fe1.98Ti0.02O3</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>961.04</v>
+        <v>11263</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/S0925-8388(01)01804-7</t>
+          <t>http://doi.org/10.7566/JPSJ.85.074702</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fe1.98Ti0.02O3</t>
+          <t>LaOBiS2</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>11263</v>
+        <v>0.25032</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>http://doi.org/10.7566/JPSJ.85.074702</t>
+          <t>http://dx.doi.org/10.1016/S0925-8388(02)00972-6</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LaOBiS2</t>
+          <t>Sr0.8La0.2TiO3</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.25032</v>
+        <v>1631.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/S0925-8388(02)00972-6</t>
+          <t>http://dx.doi.org/10.1039/c0ee00517g</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sr0.8La0.2TiO3</t>
+          <t>Ca2.97Na0.03AlSb3</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1631.4</v>
+        <v>10.194</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/c0ee00517g</t>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ca2.97Na0.03AlSb3</t>
+          <t>MgAg0.97Sb.985Sn.005</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>10.194</v>
+        <v>336.96</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
-        </is>
-      </c>
+      <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MgAg0.97Sb.985Sn.005</t>
+          <t>Cu2ZnGe0.9In0.1Se4</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>336.96</v>
+        <v>161.0306</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1039/c5ra28088e</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cu2ZnGe0.9In0.1Se4</t>
+          <t>BiSbTe1.5Se1.5</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>161.0306</v>
+        <v>0.012958</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/c5ra28088e</t>
+          <t>http://dx.doi.org/10.1021/acs.chemmater.7b01746</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BiSbTe1.5Se1.5</t>
+          <t>Mg3.07Sb1.5Bi0.46Se.04</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.012958</v>
+        <v>73.40300000000001</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1021/acs.chemmater.7b01746</t>
-        </is>
-      </c>
+      <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Mg3.07Sb1.5Bi0.46Se.04</t>
+          <t>Cu1.8Ag1.2SbSe4</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>73.40300000000001</v>
+        <v>132.9781752</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.jpcs.2004.01.010</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cu1.8Ag1.2SbSe4</t>
+          <t>Bi90Sb10</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>132.9781752</v>
+        <v>5485.1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/j.jpcs.2004.01.010</t>
-        </is>
-      </c>
+      <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Bi90Sb10</t>
+          <t>Bi0.46Sb1.54Te3</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5485.1</v>
+        <v>868.03</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr"/>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1103/PhysRevB.60.14057</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Bi0.46Sb1.54Te3</t>
+          <t>Sm0.5Ca0.5MnO3</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>868.03</v>
+        <v>104.68</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevB.60.14057</t>
+          <t>https://doi.org/10.1039/c2cc30318c</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sm0.5Ca0.5MnO3</t>
+          <t>CuInTe2(annealed 7 Days)</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>104.68</v>
+        <v>141.92</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/c2cc30318c</t>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CuInTe2(annealed 7 Days)</t>
+          <t>Cu3Sb.9Bi.1Se4</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>141.92</v>
+        <v>18.507</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
-        </is>
-      </c>
+      <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cu3Sb.9Bi.1Se4</t>
+          <t>Cu0.98GaTe2</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>18.507</v>
+        <v>704.3987966</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr"/>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1039/C1JM10827A</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cu0.98GaTe2</t>
+          <t>Mg2Si0.994Bi0.006</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>704.3987966</v>
+        <v>3030.3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/C1JM10827A</t>
+          <t>http://dx.doi.org/10.1038/nature09996</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mg2Si0.994Bi0.006</t>
+          <t>Na0.02PbTe0.75Se0.25</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3030.3</v>
+        <v>1951.6</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1038/nature09996</t>
-        </is>
-      </c>
+      <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Na0.02PbTe0.75Se0.25</t>
+          <t>Cu0.985GaTe2</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1951.6</v>
+        <v>490.4243179</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cu0.985GaTe2</t>
+          <t>Bi0.5Sb1.5Te3+.5wt%Pb</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>490.4243179</v>
+        <v>753.89</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr"/>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10854-018-8765-1</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Bi0.5Sb1.5Te3+.5wt%Pb</t>
+          <t xml:space="preserve"> Bi.048SB.152Te.3///Bi.048SB.152Te.3+Xwt%</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>753.89</v>
+        <v>1283.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10854-018-8765-1</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2009.08.012</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bi.048SB.152Te.3///Bi.048SB.152Te.3+Xwt%</t>
+          <t>Ca0.9Bi0.1Mn0.9Nb0.1O3</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1283.1</v>
+        <v>136.51</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2009.08.012</t>
+          <t>https://doi.org/10.1002/ejic.201100284</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ca0.9Bi0.1Mn0.9Nb0.1O3</t>
+          <t>BaCu5.7Se.6Te6.4</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>136.51</v>
+        <v>29.18</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/ejic.201100284</t>
+          <t>http://dx.doi.org/10.1021/acs.chemmater.7b01746</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BaCu5.7Se.6Te6.4</t>
+          <t>Mg3.07Sb1.5Bi0.47Se.03</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>29.18</v>
+        <v>75.633</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/acs.chemmater.7b01746</t>
+          <t>http://dx.doi.org/10.1088/1674-1056/26/1/017202</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Mg3.07Sb1.5Bi0.47Se.03</t>
+          <t>Bi.48SB1.52Te3+2%(Mn.8Cu.2Sb2Se4)</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>75.633</v>
+        <v>911.11</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1088/1674-1056/26/1/017202</t>
+          <t>http://dx.doi.org/10.1023/A:1018515223271</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Bi.48SB1.52Te3+2%(Mn.8Cu.2Sb2Se4)</t>
+          <t>BaPbO3</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>911.11</v>
+        <v>2305.5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1023/A:1018515223271</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2009.08.012</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BaPbO3</t>
+          <t>Ca0.96Bi0.04Mn0.96Nb0.04O3</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2305.5</v>
+        <v>112.81</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2009.08.012</t>
-        </is>
-      </c>
+      <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ca0.96Bi0.04Mn0.96Nb0.04O3</t>
+          <t>Ti2FeNiSb1.7Sn0.3</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>112.81</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Ti2FeNiSb1.7Sn0.3</t>
+          <t>Mg0.98Li0.02Ag0.97Sb 0.99</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>322</v>
+        <v>930.4402426</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr"/>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.ssc.2012.03.013</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Mg0.98Li0.02Ag0.97Sb 0.99</t>
+          <t>La1.67Sr0.34Cu0.94Ti0.06O4</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>930.4402426</v>
+        <v>312.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.ssc.2012.03.013</t>
+          <t>http://dx.doi.org/10.1109/ICT.1999.843362</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>La1.67Sr0.34Cu0.94Ti0.06O4</t>
+          <t>Sr8Ga16Ge30</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>312.5</v>
+        <v>1272.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1109/ICT.1999.843362</t>
+          <t>https://doi.org/10.1039/C8EE03374A</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sr8Ga16Ge30</t>
+          <t>Mg.305(Sb.03Bi.07).1999Te.001</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1272.3</v>
+        <v>1374.9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/C8EE03374A</t>
+          <t>http://dx.doi.org/10.3390/ma10030251</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mg.305(Sb.03Bi.07).1999Te.001</t>
+          <t>BI.4Sb1.585Ge.015Te3</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1374.9</v>
+        <v>1216.3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.3390/ma10030251</t>
+          <t>http://dx.doi.org/10.1038/nature09996</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BI.4Sb1.585Ge.015Te3</t>
+          <t>Na0.02PbTe0.85Se0.15</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1216.3</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1038/nature09996</t>
+          <t>https://doi.org/10.1021/ja111199y</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Na0.02PbTe0.85Se0.15</t>
+          <t>Ba0.09La0.04Yb0.14Co4Sb12</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2420</v>
+        <v>3509.8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/ja111199y</t>
+          <t>http://dx.doi.org/10.1088/1674-1056/26/1/017202</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ba0.09La0.04Yb0.14Co4Sb12</t>
+          <t>Bi.48SB1.52Te3+2%(MnSb2Se4)</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3509.8</v>
+        <v>836.73</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1088/1674-1056/26/1/017202</t>
+          <t>http://dx.doi.org/10.1063/1.348408</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Bi.48SB1.52Te3+2%(MnSb2Se4)</t>
+          <t>Si0.7956Ge0.1989P0.0055</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>836.73</v>
+        <v>854.6900000000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.348408</t>
+          <t>http://dx.doi.org/10.1007/s11664-009-0975-0</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Si0.7956Ge0.1989P0.0055</t>
+          <t>Fe1.3Mo6S8</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>854.6900000000001</v>
+        <v>1538.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s11664-009-0975-0</t>
+          <t>http://dx.doi.org/10.1016/S0925-8388(01)01804-7</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Fe1.3Mo6S8</t>
+          <t>Fe1.94Ti0.06O3</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1538.5</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/S0925-8388(01)01804-7</t>
+          <t>https://doi.org/10.1007/s11664-014-3075-8</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Fe1.94Ti0.06O3</t>
+          <t>Cu2HgSnTe4</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>24300</v>
+        <v>2242.104</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11664-014-3075-8</t>
+          <t>http://dx.doi.org/10.1007/978-3-540-88201-5_24</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cu2HgSnTe4</t>
+          <t>SrNd0.2Ti0.8O3</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2242.104</v>
+        <v>544</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1007/978-3-540-88201-5_24</t>
-        </is>
-      </c>
+      <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SrNd0.2Ti0.8O3</t>
+          <t>Sb1.9In0.10Te3</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>544</v>
+        <v>1154.947796</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr"/>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/S0925-8388(01)01804-7</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sb1.9In0.10Te3</t>
+          <t>Fe1.96Ti0.04O3</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1154.947796</v>
+        <v>26568</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/S0925-8388(01)01804-7</t>
+          <t>http://dx.doi.org/10.1063/1.1687532</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Fe1.96Ti0.04O3</t>
+          <t>LiMn2O4</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>26568</v>
+        <v>0.00058109</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.1687532</t>
+          <t>http://dx.doi.org/10.1126/science.1159725</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>LiMn2O4</t>
+          <t>Tl0.02Pb0.98Te</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.00058109</v>
+        <v>417.72</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1126/science.1159725</t>
+          <t>http://dx.doi.org/10.1002/adfm.201000970</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Tl0.02Pb0.98Te</t>
+          <t>Ca5Al2Sb6</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>417.72</v>
+        <v>2.1877</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1002/adfm.201000970</t>
+          <t>http://doi.org/10.7566/JPSJ.85.074702</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ca5Al2Sb6</t>
+          <t>LaOBiS.14Se.06</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2.1877</v>
+        <v>0.33477</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>http://doi.org/10.7566/JPSJ.85.074702</t>
+          <t>https://doi.org/10.1002/adfm.200901817</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>LaOBiS.14Se.06</t>
+          <t>Ba8Ni.32Ga13.63Ge32.05</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.33477</v>
+        <v>1315.3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/adfm.200901817</t>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ba8Ni.32Ga13.63Ge32.05</t>
+          <t>Cu3Sb.88Sn.1Bi.02Se4</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1315.3</v>
+        <v>1296.418136</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
+          <t>https://doi.org/10.1016/j.intermet.2016.11.002</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cu3Sb.88Sn.1Bi.02Se4</t>
+          <t>BiSbTe+(T2O3)6%</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1296.418136</v>
+        <v>487.01</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.intermet.2016.11.002</t>
+          <t>http://dx.doi.org/10.1016/S0925-8388(02)01002-2</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BiSbTe+(T2O3)6%</t>
+          <t>Mo6Te6S2</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>487.01</v>
+        <v>1166.9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/S0925-8388(02)01002-2</t>
+          <t>http://dx.doi.org/10.1111/j.1551-2916.2010.03673.x</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Mo6Te6S2</t>
+          <t>CaGd0.96Mn0.04O3</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1166.9</v>
+        <v>67.262</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1111/j.1551-2916.2010.03673.x</t>
-        </is>
-      </c>
+      <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CaGd0.96Mn0.04O3</t>
+          <t>Bi0.4Sb1.590Ge0.01Te3</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>67.262</v>
+        <v>900.9009009</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr"/>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Bi0.4Sb1.590Ge0.01Te3</t>
+          <t>Ca0.9La0.1MnO3</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>900.9009009</v>
+        <v>125.57</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
+          <t>http://dx.doi.org/10.1063/1.3682585</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ca0.9La0.1MnO3</t>
+          <t>Ba8Au5.59Si39.01</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>125.57</v>
+        <v>427.35</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.3682585</t>
+          <t>https://doi.org/10.1007/s10854-018-8765-1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ba8Au5.59Si39.01</t>
+          <t>Bi.048SB.152Te.3+.01wt%PbTe</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>427.35</v>
+        <v>2117.1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10854-018-8765-1</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2007.09.101</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Bi.048SB.152Te.3+.01wt%PbTe</t>
+          <t>Mg1.9Ca0.1Si</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2117.1</v>
+        <v>472.37</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2007.09.101</t>
+          <t>https://doi.org/10.1007/s11664-014-3075-8</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Mg1.9Ca0.1Si</t>
+          <t>Cu2HgSnSe0.8Te3.2</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>472.37</v>
+        <v>863.8134</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11664-014-3075-8</t>
+          <t>http://dx.doi.org/10.1109/ICT.1996.553263</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Cu2HgSnSe0.8Te3.2</t>
+          <t>CeFe3.5Co0.5Sb12</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>863.8134</v>
+        <v>1119.8</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1109/ICT.1996.553263</t>
+          <t>https://doi.org/10.1021/ja111199y</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CeFe3.5Co0.5Sb12</t>
+          <t>Ba0.06La0.05Yb0.02Co4Sb12</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1119.8</v>
+        <v>1863.4</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/ja111199y</t>
+          <t>http://dx.doi.org/10.1021/cm200581k</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ba0.06La0.05Yb0.02Co4Sb12</t>
+          <t>AgCrSe2</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1863.4</v>
+        <v>22.449</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/cm200581k</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2009.08.012</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AgCrSe2</t>
+          <t>Ca0.98Bi0.02Mn0.98Nb0.02O3</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>22.449</v>
+        <v>49.198</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2009.08.012</t>
+          <t>http://dx.doi.org/10.1109/ICT.1999.843362</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ca0.98Bi0.02Mn0.98Nb0.02O3</t>
+          <t>Ba8Ga16Si30</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>49.198</v>
+        <v>819.67</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1109/ICT.1999.843362</t>
+          <t>http://dx.doi.org/10.1007/s11664-009-0975-0</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ba8Ga16Si30</t>
+          <t>Cr1.3Mo6S8</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>819.67</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1007/s11664-009-0975-0</t>
-        </is>
-      </c>
+      <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Cr1.3Mo6S8</t>
+          <t>YbCd1.9Mg0.1Sb2</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1966</v>
+        <v>495.96</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
-          <t>YbCd1.9Mg0.1Sb2</t>
+          <t>Cu3Sb0.94Bi0.06S4</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>495.96</v>
+        <v>29.98387198</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr"/>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.jssc.2016.03.032</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cu3Sb0.94Bi0.06S4</t>
+          <t>Bi2YO4Cu2Se1.80I.20</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>29.98387198</v>
+        <v>556.9060773</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jssc.2016.03.032</t>
+          <t>http://dx.doi.org/10.1111/j.1551-2916.2012.05169.x</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Bi2YO4Cu2Se1.80I.20</t>
+          <t>Sr4.5Nb4.5O15.5</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>556.9060773</v>
+        <v>877.1900000000001</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1111/j.1551-2916.2012.05169.x</t>
+          <t>http://dx.doi.org/10.1016/S0925-8388(02)01002-2</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sr4.5Nb4.5O15.5</t>
+          <t>Mo6Te7S</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>877.1900000000001</v>
+        <v>1303.8</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/S0925-8388(02)01002-2</t>
-        </is>
-      </c>
+      <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Mo6Te7S</t>
+          <t>Cu2.1Zn0.9SnS4</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1303.8</v>
+        <v>23.8095</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr"/>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1063/1.1868063</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cu2.1Zn0.9SnS4</t>
+          <t>Zr0.25Hf0.25Ti0.5NiSn</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>23.8095</v>
+        <v>210.2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.1868063</t>
+          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Zr0.25Hf0.25Ti0.5NiSn</t>
+          <t>Ca0.9Pb0.1MnO3</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>210.2</v>
+        <v>22.453</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
+          <t>http://dx.doi.org/10.1016/S0925-8388(02)01002-2</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ca0.9Pb0.1MnO3</t>
+          <t>Mo3Te4</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>22.453</v>
+        <v>1406.5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/S0925-8388(02)01002-2</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2017.02.182</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Mo3Te4</t>
+          <t>Bi0.5Sb1.5Te2.7Se.3</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1406.5</v>
+        <v>1329.8</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2017.02.182</t>
+          <t>http://dx.doi.org/10.1103/PhysRevB.81.125205</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Bi0.5Sb1.5Te2.7Se.3</t>
+          <t>La2.99Te4</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1329.8</v>
+        <v>1639.3</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevB.81.125205</t>
+          <t>http://dx.doi.org/10.3390/ma3042606</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>La2.99Te4</t>
+          <t>Sn1.2S1.2Ti2S4</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1639.3</v>
+        <v>2092.1</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.3390/ma3042606</t>
-        </is>
-      </c>
+      <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sn1.2S1.2Ti2S4</t>
+          <t>Cu2.075Mg0.925SnSe4</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2092.1</v>
+        <v>187.968</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr"/>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1063/1.1687532</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Cu2.075Mg0.925SnSe4</t>
+          <t>CaMn6CuO12</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>187.968</v>
+        <v>4.0379</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.1687532</t>
+          <t>http://dx.doi.org/10.1063/1.4867186</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CaMn6CuO12</t>
+          <t>La.50F.50OBiS2</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>4.0379</v>
+        <v>380.26</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.4867186</t>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>La.50F.50OBiS2</t>
+          <t>Cu3Sb.95Sn.05Se4</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>380.26</v>
+        <v>572.71</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
+          <t>http://dx.doi.org/10.1023/A:1018515223271</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Cu3Sb.95Sn.05Se4</t>
+          <t>Ba0.6Sr0.4PbO3</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>572.71</v>
+        <v>765.6900000000001</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1023/A:1018515223271</t>
+          <t>http://dx.doi.org/10.1002/chin.200318015</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ba0.6Sr0.4PbO3</t>
+          <t>Nd2Cu0.98Zn0.02O4</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>765.6900000000001</v>
+        <v>5.2691</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1002/chin.200318015</t>
+          <t>https://doi.org/10.1007/s11664-014-3075-8</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nd2Cu0.98Zn0.02O4</t>
+          <t>Cu2HgSnSe2Te2</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>5.2691</v>
+        <v>427.0523</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11664-014-3075-8</t>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Cu2HgSnSe2Te2</t>
+          <t>Cu3Sb.99Sn.01Se4</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>427.0523</v>
+        <v>168.34</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
+          <t>http://dx.doi.org/10.1039/A602506D</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Cu3Sb.99Sn.01Se4</t>
+          <t>Zn0.95Al0.05O</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>168.34</v>
+        <v>689.7</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1039/A602506D</t>
-        </is>
-      </c>
+      <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Zn0.95Al0.05O</t>
+          <t>Mg0.99Li0.01Ag0.97Sb 0.99</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>689.7</v>
+        <v>805.4998383</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr"/>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.ssc.2007.12.033</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Mg0.99Li0.01Ag0.97Sb 0.99</t>
+          <t>In1.985Ge0.015O3</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>805.4998383</v>
+        <v>1383.2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.ssc.2007.12.033</t>
+          <t>http://dx.doi.org/10.1109/ICT.2006.331288</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>In1.985Ge0.015O3</t>
+          <t>CuCr0.97Mg0.03O2</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1383.2</v>
+        <v>9.829499999999999</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1109/ICT.2006.331288</t>
-        </is>
-      </c>
+      <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CuCr0.97Mg0.03O2</t>
+          <t>Cu2ZnGe0.925In0.075Se4</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>9.829499999999999</v>
+        <v>75.8725</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr"/>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1103/PhysRevB.59.192</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Cu2ZnGe0.925In0.075Se4</t>
+          <t>La2CuO4</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>75.8725</v>
+        <v>13.779</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevB.59.192</t>
+          <t>http://dx.doi.org/10.1038/nature11439</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>La2CuO4</t>
+          <t>Pb0.98TeNa0.2</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>13.779</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1038/nature11439</t>
+          <t>http://dx.doi.org/10.1016/j.jssc.2008.08.078</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Pb0.98TeNa0.2</t>
+          <t>LaCoO3</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2399</v>
+        <v>0.12957</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jssc.2008.08.078</t>
+          <t>http://dx.doi.org/10.1063/1.2828713</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>LaCoO3</t>
+          <t>NbCo1.10Sn</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.12957</v>
+        <v>900.71</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.2828713</t>
+          <t>https://doi.org/10.1021/ja111199y</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NbCo1.10Sn</t>
+          <t>Ba0.09La0.04Yb0.13Co4Sb12</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>900.71</v>
+        <v>3135.6</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/ja111199y</t>
+          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ba0.09La0.04Yb0.13Co4Sb12</t>
+          <t>Ca0.9Ce0.1MnO3</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3135.6</v>
+        <v>137.16</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
-        </is>
-      </c>
+      <c r="A196" t="inlineStr"/>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Ca0.9Ce0.1MnO3</t>
+          <t>CaMg2Bi2</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>137.16</v>
+        <v>82.11</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CaMg2Bi2</t>
+          <t>Cu1.5Ag1.5SbSe4</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>82.11</v>
+        <v>121.2701251</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr"/>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1126/science.287.5455.1024</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Cu1.5Ag1.5SbSe4</t>
+          <t>CsBi4Te6</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>121.2701251</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1126/science.287.5455.1024</t>
-        </is>
-      </c>
+      <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CsBi4Te6</t>
+          <t>Cu2.1Zn0.9SnSe4</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1292</v>
+        <v>860.119</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
+          <t>http://dx.doi.org/10.1109/ICT.2002.1190269</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Cu3Sb1-xSnxSe4</t>
+          <t>Ba8Ga18Ge28</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>904.38</v>
+        <v>128.8</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Cu2.1Zn0.9SnSe4</t>
+          <t>Bi0.4Sb1.585Ge0.015Te3</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>860.119</v>
+        <v>813.0081301</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1109/ICT.2002.1190269</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2006.02.075</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Ba8Ga18Ge28</t>
+          <t>Zr0.94Y0.06NiSn0.96Sb0.04</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>128.8</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr"/>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1039/c0ee00517g</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Bi0.4Sb1.585Ge0.015Te3</t>
+          <t>Ca2.94Na0.06AlSb3</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>813.0081301</v>
+        <v>16.978</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2006.02.075</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2004.02.061</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Zr0.94Y0.06NiSn0.96Sb0.04</t>
+          <t>ZrNi1.98Cu0.02Sn</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1297</v>
+        <v>952.38</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/c0ee00517g</t>
+          <t>http://dx.doi.org/10.1016/0022-4596(91)90248-G</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ca2.94Na0.06AlSb3</t>
+          <t>Ca0.9Ho0.1MnO3</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>16.978</v>
+        <v>149.4</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2004.02.061</t>
+          <t>http://dx.doi.org/10.1002/chin.199644003</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ZrNi1.98Cu0.02Sn</t>
+          <t>KBi6.33S10</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>952.38</v>
+        <v>6.0606</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/0022-4596(91)90248-G</t>
+          <t>http://dx.doi.org/10.1063/1.3682585</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ca0.9Ho0.1MnO3</t>
+          <t>Ba8Au5.14Si39.51</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>149.4</v>
+        <v>303.03</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1002/chin.199644003</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2005.04.060</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>KBi6.33S10</t>
+          <t>Fe0.978Co0.00196Si1.96Y0.04O0.06</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>6.0606</v>
+        <v>7.8431</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.3682585</t>
+          <t>http://dx.doi.org/10.1126/science.287.5455.1024</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ba8Au5.14Si39.51</t>
+          <t>Sb0.005I0.015Cs0.995Bi3.98Te5.97</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>303.03</v>
+        <v>1176.5</v>
       </c>
     </row>
     <row r="210">
@@ -3426,2300 +3426,2304 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Fe0.978Co0.00196Si1.96Y0.04O0.06</t>
+          <t>Fe0.978Co0.00196Si1.96Y0.12O0.18</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>7.8431</v>
+        <v>3.7037</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1126/science.287.5455.1024</t>
-        </is>
-      </c>
+      <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Sb0.005I0.015Cs0.995Bi3.98Te5.97</t>
+          <t>Cu2ZnGe0.95In0.05Se4</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1176.5</v>
+        <v>145.7726</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2005.04.060</t>
+          <t>http://dx.doi.org/10.1111/j.1551-2916.2012.05169.x</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Fe0.978Co0.00196Si1.96Y0.12O0.18</t>
+          <t>Sr1.6La0.4Nb2O7</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3.7037</v>
+        <v>200</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr"/>
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1063/1.4867186</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Cu2ZnGe0.95In0.05Se4</t>
+          <t>La.75F.25OBiS2</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>145.7726</v>
+        <v>250.26</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1111/j.1551-2916.2012.05169.x</t>
+          <t>http://dx.doi.org/10.1039/C9TA01962F</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Sr1.6La0.4Nb2O7</t>
+          <t>Bi.38Sb1.62Te3+1.5%(Ge.5Mn.5Te)</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>200</v>
+        <v>2092.8</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1063/1.4867186</t>
-        </is>
-      </c>
+      <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr">
         <is>
-          <t>La.75F.25OBiS2</t>
+          <t>Mg0.9975Li0.0025Ag0.97Sb 0.99</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>250.26</v>
+        <v>488.1270026</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/C9TA01962F</t>
+          <t>http://dx.doi.org/10.1016/j.ssc.2012.03.013</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Bi.38Sb1.62Te3+1.5%(Ge.5Mn.5Te)</t>
+          <t>La1.85Sr0.15Cu0.94Ti0.06O4</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2092.8</v>
+        <v>0.079302</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr"/>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://doi.org/10.1038/am.2015.91</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Znx0.005Bi0.46Sb1.54Te3.005</t>
+          <t>Cu1.97S</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>949.1799999999999</v>
+        <v>79.095</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr"/>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Mg0.9975Li0.0025Ag0.97Sb 0.99</t>
+          <t>Ca0.9Sm0.1MnO3</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>488.1270026</v>
+        <v>115.81</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.ssc.2012.03.013</t>
+          <t>http://dx.doi.org/10.1063/1.121747</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>La1.85Sr0.15Cu0.94Ti0.06O4</t>
+          <t>Sr0.147Ga0.298Ge0.555</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.079302</v>
+        <v>381.68</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://doi.org/10.1038/am.2015.91</t>
-        </is>
-      </c>
+      <c r="A220" t="inlineStr"/>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Cu1.97S</t>
+          <t>Sb1.95In0.05Te3</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>79.095</v>
+        <v>2067.268931</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
+          <t>http://dx.doi.org/10.1039/A602506D</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Ca0.9Sm0.1MnO3</t>
+          <t>ZnO</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>115.81</v>
+        <v>0.059161</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.121747</t>
+          <t>https://doi.org/10.1063/1.3103604</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Sr0.147Ga0.298Ge0.555</t>
+          <t>Cu2ZnSn.85In0.15Se4</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>381.68</v>
+        <v>3.4659e-07</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr"/>
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.nanoen.2016.11.010</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Sb1.95In0.05Te3</t>
+          <t>MgAg0.97Sb.985As.005</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2067.268931</v>
+        <v>482.43</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/A602506D</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ZnO</t>
+          <t>Zr0.99Nb0.01NiSn</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.059161</v>
+        <v>913.1799999999999</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.3103604</t>
+          <t>http://dx.doi.org/10.1007/s11664-009-0815-2</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cu2ZnSn.85In0.15Se4</t>
+          <t>CuFe0.9Cr0.1O2</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>3.4659e-07</v>
+        <v>9.338900000000001</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.nanoen.2016.11.010</t>
+          <t>http://www.jstor.org/stable/2889796</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MgAg0.97Sb.985As.005</t>
+          <t>CeFeCo3Sb12</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>482.43</v>
+        <v>95.664</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
+          <t>https://doi.org/10.1002/aenm.201502423</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Zr0.99Nb0.01NiSn</t>
+          <t>Bi.92Ca.04Pb.04CuSeO</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>913.1799999999999</v>
+        <v>366.9802689</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1007/s11664-009-0815-2</t>
-        </is>
-      </c>
+      <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr">
         <is>
-          <t>CuFe0.9Cr0.1O2</t>
+          <t>Bi0.4Sb1.6Te3</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>9.338900000000001</v>
+        <v>1030.927835</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>http://www.jstor.org/stable/2889796</t>
+          <t>http://dx.doi.org/10.1039/c5ra28088e</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>CeFeCo3Sb12</t>
+          <t>(BiSbTe1.5Se1.5).988Ag.012</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>95.664</v>
+        <v>0.0062711</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/aenm.201502423</t>
+          <t>http://dx.doi.org/10.1021/cm052055b</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Bi.92Ca.04Pb.04CuSeO</t>
+          <t>In0.05Co4Sb12</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>366.9802689</v>
+        <v>167.34</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr"/>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1002/chin.200318015</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Bi0.4Sb1.6Te3</t>
+          <t>Nd2Cu0.98Ni0.02O4</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1030.927835</v>
+        <v>16.83</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/c5ra28088e</t>
+          <t xml:space="preserve"> https://doi.org/10.1038/am.2015.91</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>(BiSbTe1.5Se1.5).988Ag.012</t>
+          <t>Cu2S.5Te.5</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.0062711</v>
+        <v>335.98</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1021/cm052055b</t>
-        </is>
-      </c>
+      <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr">
         <is>
-          <t>In0.05Co4Sb12</t>
+          <t>CaMg1.9Zn0.1Bi1.98</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>167.34</v>
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1002/chin.200318015</t>
+          <t>http://dx.doi.org/10.1016/0022-4596(91)90248-G</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Nd2Cu0.98Ni0.02O4</t>
+          <t>Ca0.9Tb0.1MnO3</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>16.83</v>
+        <v>173.52</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1038/am.2015.91</t>
+          <t>http://dx.doi.org/10.1557/jmr.2011.140</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Cu2S.5Te.5</t>
+          <t>CaMn0.98Nb0.02O3</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>335.98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr"/>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/0022-4596(91)90248-G</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>CaMg1.9Zn0.1Bi1.98</t>
+          <t>Ca0.7Y0.3MnO3</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>64.90000000000001</v>
+        <v>131.12</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/0022-4596(91)90248-G</t>
+          <t>https://doi.org/10.1016/j.intermet.2016.11.002</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Ca0.9Tb0.1MnO3</t>
+          <t>BiSbTe+(T2O3)4wt%</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>173.52</v>
+        <v>497.4</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1557/jmr.2011.140</t>
-        </is>
-      </c>
+      <c r="A238" t="inlineStr"/>
       <c r="B238" t="inlineStr">
         <is>
-          <t>CaMn0.98Nb0.02O3</t>
+          <t>Ti1.4Hf0.6FeNiSb1.7Sn0.3</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>50</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/0022-4596(91)90248-G</t>
+          <t>http://dx.doi.org/10.1007/s10854-011-0574-8</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ca0.7Y0.3MnO3</t>
+          <t>W0.99O2.97Co0.02O0.03</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>131.12</v>
+        <v>0.0008020599999999999</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.intermet.2016.11.002</t>
+          <t>http://dx.doi.org/10.1126/science.1159725</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>BiSbTe+(T2O3)4wt%</t>
+          <t>Tl0.01Pb0.99Te</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>497.4</v>
+        <v>364.64</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://doi.org/10.1038/am.2015.91</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Ti1.4Hf0.6FeNiSb1.7Sn0.3</t>
+          <t>Cu2S.54Te.46</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>301.7</v>
+        <v>192.4</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s10854-011-0574-8</t>
+          <t>http://dx.doi.org/10.1021/acsami.8b06533</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>W0.99O2.97Co0.02O0.03</t>
+          <t>Bi2Te2.6Se0.6</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.0008020599999999999</v>
+        <v>1583.7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1126/science.1159725</t>
+          <t>http://dx.doi.org/10.1063/1.3117943</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Tl0.01Pb0.99Te</t>
+          <t>Sr3Ti1.6Nb0.4O7</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>364.64</v>
+        <v>538</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1038/am.2015.91</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2006.02.075</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Cu2S.54Te.46</t>
+          <t>ZrNiSn0.98Sb0.02</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>192.4</v>
+        <v>1672.2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/acsami.8b06533</t>
+          <t>https://doi.org/10.1021/ja111199y</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Bi2Te2.6Se0.6</t>
+          <t>Ba0.08La0.05Yb0.04Co4Sb12</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1583.7</v>
+        <v>2450.2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.3117943</t>
+          <t>http://dx.doi.org/10.1016/j.ssc.2012.03.013</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Sr3Ti1.6Nb0.4O7</t>
+          <t>La1.73Sr0.27Cu0.94Ti0.06O4</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>538</v>
+        <v>256.41</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2006.02.075</t>
+          <t>http://dx.doi.org/10.1016/j.ssc.2007.12.033</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ZrNiSn0.98Sb0.02</t>
+          <t>In1.8Ge0.2O3</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1672.2</v>
+        <v>348.07</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/ja111199y</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2005.04.060</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Ba0.08La0.05Yb0.04Co4Sb12</t>
+          <t>Fe0.998Co0.002Si2</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2450.2</v>
+        <v>21.053</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.ssc.2012.03.013</t>
+          <t>https://doi.org/10.1002/aenm.201502423</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>La1.73Sr0.27Cu0.94Ti0.06O4</t>
+          <t>Bi.80Ca.10Pb.10CuSeO</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>256.41</v>
+        <v>580.8933124</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.ssc.2007.12.033</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2004.05.078</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>In1.8Ge0.2O3</t>
+          <t>Zr0.15Hf0.15Ti0.7NiSn</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>348.07</v>
+        <v>213.98</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2005.04.060</t>
+          <t>http://jjap.jsap.jp/link?JJAP/43/L540/</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Fe0.998Co0.002Si2</t>
+          <t>Sr0.9Y0.1TiO3</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>21.053</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/aenm.201502423</t>
+          <t>http://dx.doi.org/10.1016/j.progsolidstchem.2007.01.027</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Bi.80Ca.10Pb.10CuSeO</t>
+          <t>SrMn0.98Mo0.02O3</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>580.8933124</v>
+        <v>38.812</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2004.05.078</t>
+          <t>http://dx.doi.org/10.1038/nature11439</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Zr0.15Hf0.15Ti0.7NiSn</t>
+          <t>Pb0.98Sr0.2TeNa0.1</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>213.98</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>http://jjap.jsap.jp/link?JJAP/43/L540/</t>
+          <t>https://doi.org/10.1016/j.intermet.2016.11.002</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Sr0.9Y0.1TiO3</t>
+          <t>BiSbTe+(T2O3)2wt%</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1139</v>
+        <v>511.69</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.progsolidstchem.2007.01.027</t>
+          <t>http://dx.doi.org/10.1103/PhysRevLett.69.2975</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SrMn0.98Mo0.02O3</t>
+          <t>La1.725Sr0.28CuO4</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>38.812</v>
+        <v>2121.6</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1038/nature11439</t>
+          <t>http://dx.doi.org/10.1002/aenm.201900354</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Pb0.98Sr0.2TeNa0.1</t>
+          <t>Bi2O2Se</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.intermet.2016.11.002</t>
+          <t>http://dx.doi.org/10.3390/ma3042606</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>BiSbTe+(T2O3)2wt%</t>
+          <t>Pb1.8S1.8Ti2S4</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>511.69</v>
+        <v>2173.9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1126/science.aad3749</t>
+          <t>http://dx.doi.org/10.1103/PhysRevB.60.14057</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Sn.985Na.015Se (hole doped)   A axis</t>
+          <t>Sm1.7Ca0.3MnO3</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>363.96</v>
+        <v>4.0181</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevLett.69.2975</t>
+          <t>http://www.jstor.org/stable/2889796</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>La1.725Sr0.28CuO4</t>
+          <t>CeFe2.5Co1.5Sb12</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2121.6</v>
+        <v>364.71</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1002/aenm.201900354</t>
+          <t>http://dx.doi.org/10.1088/1674-1056/26/1/017202</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Bi2O2Se</t>
+          <t>Bi.48SB1.52Te3+3%(MnSb2Se4)</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>597.09</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.3390/ma3042606</t>
+          <t>http://dx.doi.org/10.1016/j.jssc.2016.03.032</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Pb1.8S1.8Ti2S4</t>
+          <t>Bi2YO4Cu2Se1.95I.05</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>2173.9</v>
+        <v>698.6187844999999</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevB.60.14057</t>
+          <t>http://dx.doi.org/10.1016/0022-4596(91)90248-G</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Sm1.7Ca0.3MnO3</t>
+          <t>Ca0.7Tb0.3MnO3</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>4.0181</v>
+        <v>164.73</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>http://www.jstor.org/stable/2889796</t>
+          <t>http://www.jmst.org/EN/Y2009/V25/I04/0535</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>CeFe2.5Co1.5Sb12</t>
+          <t>Ca0.92La0.08MnO3</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>364.71</v>
+        <v>100.34</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1088/1674-1056/26/1/017202</t>
+          <t>http://dx.doi.org/10.1063/1.4867186</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Bi.48SB1.52Te3+3%(MnSb2Se4)</t>
+          <t>La.95F.05OBiS2</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>597.09</v>
+        <v>140.1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jssc.2016.03.032</t>
+          <t>https://doi.org/10.1063/1.3103604</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Bi2YO4Cu2Se1.95I.05</t>
+          <t>Cu2ZnSn.95In0.05Se4</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>698.6187844999999</v>
+        <v>4.7287e-07</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/0022-4596(91)90248-G</t>
+          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Ca0.7Tb0.3MnO3</t>
+          <t>Ca0.9Sn0.1MnO3</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>164.73</v>
+        <v>0.45497</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>http://www.jmst.org/EN/Y2009/V25/I04/0535</t>
+          <t>http://dx.doi.org/10.1103/PhysRevB.80.115103</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ca0.92La0.08MnO3</t>
+          <t>CuRh0.99Mg0.01O2</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>100.34</v>
+        <v>7.6104</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.4867186</t>
+          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>La.95F.05OBiS2</t>
+          <t>Ca0.9Bi0.1MnO3</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>140.1</v>
+        <v>269.86</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.3103604</t>
+          <t>http://dx.doi.org/10.1109/ICT.2006.331291</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Cu2ZnSn.95In0.05Se4</t>
+          <t>CaYb0.15Mn0.85O3</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>4.7287e-07</v>
+        <v>297.49</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
+          <t>http://dx.doi.org/10.1039/c5ra28088e</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ca0.9Sn0.1MnO3</t>
+          <t>(BiSbTe1.5Se1.5).991Ag.009</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.45497</v>
+        <v>0.012566</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevB.80.115103</t>
+          <t>http://dx.doi.org/10.1039/A602506D</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>CuRh0.99Mg0.01O2</t>
+          <t>Zn0.98Al0.02O</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>7.6104</v>
+        <v>778.7</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ca0.9Bi0.1MnO3</t>
+          <t>Zr0.98Nb0.02NiSn</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>269.86</v>
+        <v>1624.1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1109/ICT.2006.331291</t>
+          <t>http://dx.doi.org/10.1063/1.2828713</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>CaYb0.15Mn0.85O3</t>
+          <t>NbCo1.05Sn</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>297.49</v>
+        <v>727.74</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/c5ra28088e</t>
+          <t>https://doi.org/10.1002/aenm.201502423</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>(BiSbTe1.5Se1.5).991Ag.009</t>
+          <t>Bi.88Ca.06Pb.06CuSeO</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.012566</v>
+        <v>456.7193993</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/A602506D</t>
+          <t>http://dx.doi.org/10.1016/j.ssc.2007.12.033</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Zn0.98Al0.02O</t>
+          <t>In1.9Ge0.1O3</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>778.7</v>
+        <v>756.78</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
+          <t>http://doi.org/10.1038/s41598-017-05428-4</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Zr0.98Nb0.02NiSn</t>
+          <t>BiSbTe3</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1624.1</v>
+        <v>8.1113e-07</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.2828713</t>
+          <t>http://dx.doi.org/10.1021/cm052055b</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NbCo1.05Sn</t>
+          <t>In0.15Co4Sb12</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>727.74</v>
+        <v>534.26</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/aenm.201502423</t>
-        </is>
-      </c>
+      <c r="A278" t="inlineStr"/>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Bi.88Ca.06Pb.06CuSeO</t>
+          <t>Cu2.1Ag0.9SbSe4</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>456.7193993</v>
+        <v>117.4127996</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.ssc.2007.12.033</t>
+          <t>http://dx.doi.org/10.1007/978-3-540-88201-5_24</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>In1.9Ge0.1O3</t>
+          <t>SrDy0.08Ti0.92O3</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>756.78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>http://doi.org/10.1038/s41598-017-05428-4</t>
+          <t>https://doi.org/10.1007/s10854-018-8765-1</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>BiSbTe3</t>
+          <t>Bi.048SB.152Te.3+.015wt%PbTe</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>8.1113e-07</v>
+        <v>2077.2</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/cm052055b</t>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>In0.15Co4Sb12</t>
+          <t>MgAg0.97Sb.98Sn.01</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>534.26</v>
+        <v>388.71</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr"/>
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/aenm.201502423</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Cu2.1Ag0.9SbSe4</t>
+          <t>Bi.98Ca.01Pb.01CuSeO</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>117.4127996</v>
+        <v>121.7628776</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/978-3-540-88201-5_24</t>
+          <t>http://dx.doi.org/10.1063/1.124182</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>SrDy0.08Ti0.92O3</t>
+          <t>Tl2GeTe5</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>104</v>
+        <v>43.215</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s10854-018-8765-1</t>
-        </is>
-      </c>
+      <c r="A284" t="inlineStr"/>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Bi.048SB.152Te.3+.015wt%PbTe</t>
+          <t>Na.94CoO2</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2077.2</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
+          <t>http://dx.doi.org/10.1063/1.1480115</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>MgAg0.97Sb.98Sn.01</t>
+          <t>Ca2.7Bi0.3Co4O9</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>388.71</v>
+        <v>96.61799999999999</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr"/>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Znx0.03Bi0.46Sb1.54Te3.03</t>
+          <t>Ti1.8Hf0.2FeNiSb1.7Sn0.3</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1037.7</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/aenm.201502423</t>
+          <t>http://dx.doi.org/10.1039/c0ee00517g</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Bi.98Ca.01Pb.01CuSeO</t>
+          <t>Ca2.85Na0.15AlSb3</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>121.7628776</v>
+        <v>36.364</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.124182</t>
+          <t>http://dx.doi.org/10.1088/1674-1056/26/1/017202</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Tl2GeTe5</t>
+          <t>Bi.48SB1.52Te3</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>43.215</v>
+        <v>497.98</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr"/>
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1002/aenm.201900354</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Na.94CoO2</t>
+          <t>Bi1.88Ta0.12O2</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>94.7</v>
+        <v>139.3203883</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.1480115</t>
+          <t>http://dx.doi.org/10.1103/PhysRevLett.69.2975</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Ca2.7Bi0.3Co4O9</t>
+          <t>La1.9Sr0.1CuO4</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>96.61799999999999</v>
+        <v>356.78</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr"/>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Ti1.8Hf0.2FeNiSb1.7Sn0.3</t>
+          <t>Ti1.6Hf0.4FeNiSb1.7Sn0.3</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>311.4</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/c0ee00517g</t>
+          <t>http://doi.org/10.7566/JPSJ.85.074702</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ca2.85Na0.15AlSb3</t>
+          <t>LaOBiS.10Se.10</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>36.364</v>
+        <v>0.64618</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1088/1674-1056/26/1/017202</t>
+          <t>http://dx.doi.org/10.3390/ma3042606</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Bi.48SB1.52Te3</t>
+          <t>Bi1.2S1.2Ti2S4</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>497.98</v>
+        <v>3086.4</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1002/aenm.201900354</t>
+          <t>http://dx.doi.org/10.1103/PhysRevB.81.125205</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Bi1.88Ta0.12O2</t>
+          <t>La3Te3.65Sb0.35</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>139.3203883</v>
+        <v>909.09</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevLett.69.2975</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2007.09.101</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>La1.9Sr0.1CuO4</t>
+          <t>Mg1.95Ca0.05Si</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>356.78</v>
+        <v>964.3200000000001</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr"/>
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/978-3-540-88201-5_24</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ti1.6Hf0.4FeNiSb1.7Sn0.3</t>
+          <t>SrNd0.17Ti0.83O3</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>319.6</v>
+        <v>385</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>http://doi.org/10.7566/JPSJ.85.074702</t>
-        </is>
-      </c>
+      <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr">
         <is>
-          <t>LaOBiS.10Se.10</t>
+          <t>Na.98CoO2</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.64618</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.3390/ma3042606</t>
+          <t>http://dx.doi.org/10.1063/1.121747</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Bi1.2S1.2Ti2S4</t>
+          <t>Sr0.145Ga0.302Ge0.553</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3086.4</v>
+        <v>77.51900000000001</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevB.81.125205</t>
+          <t>http://dx.doi.org/10.1023/A:1018515223271</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>La3Te3.65Sb0.35</t>
+          <t>Ba0.8Sr0.2PbO3</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>909.09</v>
+        <v>2162.9</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2007.09.101</t>
+          <t>https://doi.org/10.1021/ic502055z</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Mg1.95Ca0.05Si</t>
+          <t>BaCu5.9STe6</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>964.3200000000001</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/978-3-540-88201-5_24</t>
+          <t>http://dx.doi.org/10.1016/j.ssc.2012.03.013</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>SrNd0.17Ti0.83O3</t>
+          <t>La1.69Sr0.31Cu0.94Ti0.06O4</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>385</v>
+        <v>285.71</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr"/>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Na.98CoO2</t>
+          <t>Cu0.005Bi0.5Sb1.495Te3</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>88.3</v>
+        <v>1382.683</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.121747</t>
+          <t>http://dx.doi.org/10.1016/j.jpcs.2004.01.010</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Sr0.145Ga0.302Ge0.553</t>
+          <t>Bi88Sb12</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>77.51900000000001</v>
+        <v>5811.5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1023/A:1018515223271</t>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ba0.8Sr0.2PbO3</t>
+          <t>MgAg0.97Sb.985Pb.005</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2162.9</v>
+        <v>287.04</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/ic502055z</t>
+          <t xml:space="preserve"> https://doi.org/10.1038/am.2015.91</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>BaCu5.9STe6</t>
+          <t>Cu1.98S</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.0125</v>
+        <v>39.137</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/j.ssc.2012.03.013</t>
-        </is>
-      </c>
+      <c r="A306" t="inlineStr"/>
       <c r="B306" t="inlineStr">
         <is>
-          <t>La1.69Sr0.31Cu0.94Ti0.06O4</t>
+          <t>NaCoO2</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>285.71</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Personal communication</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Cu0.005Bi0.5Sb1.495Te3</t>
+          <t>TlCr5Se8</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1382.683</v>
+        <v>71.429</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jpcs.2004.01.010</t>
+          <t>https://doi.org/10.1002/aenm.201502423</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Bi88Sb12</t>
+          <t>Bi.84Ca.08Pb.08CuSeO</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>5811.5</v>
+        <v>557.9367906</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
+          <t>http://dx.doi.org/10.1038/nmat3277</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>MgAg0.97Sb.985Pb.005</t>
+          <t>Cu1.98Se</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>287.04</v>
+        <v>1652.9</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1038/am.2015.91</t>
+          <t>https://doi.org/10.1007/s11664-014-3075-8</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Cu1.98S</t>
+          <t>Cu2HgSnSe3.2Te0.8</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>39.137</v>
+        <v>113.1879</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr"/>
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/0022-4596(91)90248-G</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NaCoO2</t>
+          <t>Ca0.7Ho0.3MnO3</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>84.3</v>
+        <v>195.37</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Personal communication</t>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TlCr5Se8</t>
+          <t>MgAg0.97Sb.98As.01</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>71.429</v>
+        <v>587.55</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/aenm.201502423</t>
+          <t>http://dx.doi.org/10.1016/j.jssc.2008.08.078</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Bi.84Ca.08Pb.08CuSeO</t>
+          <t>La0.98Sr0.02CoO3</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>557.9367906</v>
+        <v>14.454</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1038/nmat3277</t>
+          <t>https://doi.org/10.1007/s10854-018-8765-1</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cu1.98Se</t>
+          <t>Bi.048SB.152Te.3+.005wt%PbTe</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1652.9</v>
+        <v>1789.8</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11664-014-3075-8</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Cu2HgSnSe3.2Te0.8</t>
+          <t>Ti0.95Nb0.05NiSn</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>113.1879</v>
+        <v>2851.7</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/0022-4596(91)90248-G</t>
+          <t>http://dx.doi.org/10.1021/acs.chemmater.7b01746</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ca0.7Ho0.3MnO3</t>
+          <t>Mg3.07Sb1.5Bi0.45Se.05</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>195.37</v>
+        <v>78.93000000000001</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
+          <t>http://dx.doi.org/10.1016/j.jssc.2011.02.027</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>MgAg0.97Sb.98As.01</t>
+          <t>Ba7SrAl16Si30</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>587.55</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/j.jssc.2008.08.078</t>
-        </is>
-      </c>
+      <c r="A318" t="inlineStr"/>
       <c r="B318" t="inlineStr">
         <is>
-          <t>La0.98Sr0.02CoO3</t>
+          <t>CaMg1.95Zn0.05Bi1.98</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>14.454</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10854-018-8765-1</t>
+          <t>http://dx.doi.org/10.1201/9781420049718.ch22</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Bi.048SB.152Te.3+.005wt%PbTe</t>
+          <t>Ag0.15Sb0.15Te1.15Ge0.85</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1789.8</v>
+        <v>1440.4</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
+          <t>http://dx.doi.org/10.1021/acs.chemmater.7b01746</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Ti0.95Nb0.05NiSn</t>
+          <t>Mg3.07Sb1.5Bi0.44Se.06</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2851.7</v>
+        <v>67.514</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/acs.chemmater.7b01746</t>
+          <t xml:space="preserve"> https://doi.org/10.1038/am.2015.91</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Mg3.07Sb1.5Bi0.45Se.05</t>
+          <t>Cu1.97Se</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>78.93000000000001</v>
+        <v>78.476</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jssc.2011.02.027</t>
+          <t>http://dx.doi.org/10.1063/1.2828713</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Ba7SrAl16Si30</t>
+          <t>NbCoSn</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1700</v>
+        <v>814.13</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr"/>
       <c r="B323" t="inlineStr">
         <is>
-          <t>CaMg1.95Zn0.05Bi1.98</t>
+          <t>Sb1.85In0.15Te3</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>67.5</v>
+        <v>755.093103</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1201/9781420049718.ch22</t>
+          <t>http://dx.doi.org/10.1039/c5ra28088e</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Ag0.15Sb0.15Te1.15Ge0.85</t>
+          <t>(BiSbTe1.5Se1.5).994Ag.006</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1440.4</v>
+        <v>0.012024</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/acs.chemmater.7b01746</t>
+          <t>http://dx.doi.org/10.1016/j.jpcs.2004.01.010</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Mg3.07Sb1.5Bi0.44Se.06</t>
+          <t>Bi92Sb8</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>67.514</v>
+        <v>6217</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1038/am.2015.91</t>
+          <t>http://www.jstor.org/stable/2889796</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Cu1.97Se</t>
+          <t>CeFe1.5Co2.5Sb12</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>78.476</v>
+        <v>16.399</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.2828713</t>
+          <t xml:space="preserve"> https://doi.org/10.1038/am.2015.91</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NbCoSn</t>
+          <t>Cu2S</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>814.13</v>
+        <v>12.743</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr"/>
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1103/PhysRevB.80.115103</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Sb1.85In0.15Te3</t>
+          <t>CuRhO2</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>755.093103</v>
+        <v>1.7042</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/c5ra28088e</t>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>(BiSbTe1.5Se1.5).994Ag.006</t>
+          <t>MgAg0.97Sb.985Bi.005</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.012024</v>
+        <v>263.53</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jpcs.2004.01.010</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2004.05.078</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Bi92Sb8</t>
+          <t>Zr0.5Hf0.5NiSn1.998Sb0.002</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>6217</v>
+        <v>415.28</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>http://www.jstor.org/stable/2889796</t>
-        </is>
-      </c>
+      <c r="A331" t="inlineStr"/>
       <c r="B331" t="inlineStr">
         <is>
-          <t>CeFe1.5Co2.5Sb12</t>
+          <t>Cu0.01Bi0.5Sb1.48Te3</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>16.399</v>
+        <v>1615.336</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1038/am.2015.91</t>
+          <t>http://www.jmst.org/EN/Y2009/V25/I04/0535</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Cu2S</t>
+          <t>Ca0.94La0.06MnO3</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>12.743</v>
+        <v>82.18899999999999</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1103/PhysRevB.80.115103</t>
-        </is>
-      </c>
+      <c r="A333" t="inlineStr"/>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CuRhO2</t>
+          <t>CuGaTe2</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1.7042</v>
+        <v>21.40955147</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
+          <t>http://dx.doi.org/10.1002/adfm.201000970</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>MgAg0.97Sb.985Bi.005</t>
+          <t>Ca4.75Na0.25Al2Sb6</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>263.53</v>
+        <v>197.63</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2004.05.078</t>
+          <t>http://dx.doi.org/10.1038/nature09996</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Zr0.5Hf0.5NiSn1.998Sb0.002</t>
+          <t>Na0.02PbTe</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>415.28</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr"/>
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1021/cm050412c</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Cu0.01Bi0.5Sb1.48Te3</t>
+          <t>Tl2Cu2SnTe4</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1615.336</v>
+        <v>0.0076923</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>http://www.jmst.org/EN/Y2009/V25/I04/0535</t>
-        </is>
-      </c>
+      <c r="A337" t="inlineStr"/>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Ca0.94La0.06MnO3</t>
+          <t>Cu2ZnGe0.975In0.025Se4</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>82.18899999999999</v>
+        <v>130.719</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr"/>
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1039/c2cc30318c</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>CuGaTe2</t>
+          <t>CuInTe2(annealed 1hr)</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>21.40955147</v>
+        <v>34.515</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1002/adfm.201000970</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2004.05.078</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ca4.75Na0.25Al2Sb6</t>
+          <t>Zr0.5Hf0.5NiSn</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>197.63</v>
+        <v>107.26</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1038/nature09996</t>
+          <t>http://dx.doi.org/10.1039/C1JM10827A</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Na0.02PbTe</t>
+          <t>Mg2Si0.995Bi0.005</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2713</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/cm050412c</t>
+          <t>http://dx.doi.org/10.1109/ICT.2006.331288</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Tl2Cu2SnTe4</t>
+          <t>CuCr0.95Mg0.05O2</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.0076923</v>
+        <v>13.254</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr"/>
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11664-009-0735-1</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cu2ZnGe0.975In0.025Se4</t>
+          <t>Mg2Si0.98Ag0.02</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>130.719</v>
+        <v>0.80645</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/c2cc30318c</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>CuInTe2(annealed 1hr)</t>
+          <t>ZrNiSn</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>34.515</v>
+        <v>31.829</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2004.05.078</t>
-        </is>
-      </c>
+      <c r="A344" t="inlineStr"/>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Zr0.5Hf0.5NiSn</t>
+          <t>Mg1Ag0.97Sb 0.99</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>107.26</v>
+        <v>280.4972232</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/C1JM10827A</t>
+          <t>https://doi.org/10.1039/C8EE03374A</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Mg2Si0.995Bi0.005</t>
+          <t>Mg.305(Sb.03Bi.07)0.19975Te.00025</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2710</v>
+        <v>500.75</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1109/ICT.2006.331288</t>
+          <t>http://dx.doi.org/10.1103/PhysRevLett.86.4350</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>CuCr0.95Mg0.05O2</t>
+          <t>Tl9BiTe6</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>13.254</v>
+        <v>155.76</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s11664-009-0735-1</t>
+          <t>http://dx.doi.org/10.1109/ICT.2006.331288</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Mg2Si0.98Ag0.02</t>
+          <t>CuCrO2</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.80645</v>
+        <v>0.054441</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
+          <t>http://dx.doi.org/10.1016/j.ssc.2007.12.033</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>ZrNiSn</t>
+          <t>In1.94Ge0.06O3</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>31.829</v>
+        <v>1115.9</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr"/>
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Mg1Ag0.97Sb 0.99</t>
+          <t>Cu3Sb.93Sn.05Bi.02Se4</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>280.4972232</v>
+        <v>883.2393946</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1039/C8EE03374A</t>
-        </is>
-      </c>
+      <c r="A350" t="inlineStr"/>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Mg.305(Sb.03Bi.07)0.19975Te.00025</t>
+          <t>Cu1.2Ag1.8SbSe4</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>500.75</v>
+        <v>114.6775971</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevLett.86.4350</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2003.07.016</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Tl9BiTe6</t>
+          <t>Ba0.3Sr0.6La0.1TiO3</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>155.76</v>
+        <v>2025.5</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1109/ICT.2006.331288</t>
+          <t>https://doi.org/10.1039/c3ta12508d</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>CuCrO2</t>
+          <t>Cu1.98Ag.02Se</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.054441</v>
+        <v>440.55</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.ssc.2007.12.033</t>
+          <t>http://dx.doi.org/10.1007/978-3-540-88201-5_24</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>In1.94Ge0.06O3</t>
+          <t>SrNd0.24Ti0.76O3</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1115.9</v>
+        <v>445</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
+          <t>http://dx.doi.org/10.1016/j.jpcs.2004.01.010</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cu3Sb.93Sn.05Bi.02Se4</t>
+          <t>Bi86Sb14</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>883.2393946</v>
+        <v>3902.5</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr"/>
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/adfm.200901817</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cu1.2Ag1.8SbSe4</t>
+          <t>Ba8Ni.84Ga12.07Ge33.09</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>114.6775971</v>
+        <v>1017.5</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2003.07.016</t>
-        </is>
-      </c>
+      <c r="A356" t="inlineStr"/>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Ba0.3Sr0.6La0.1TiO3</t>
+          <t>YbCd1.4Mg0.6Sb2</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2025.5</v>
+        <v>69.81</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/c3ta12508d</t>
+          <t>http://dx.doi.org/10.1016/j.jssc.2008.08.078</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Cu1.98Ag.02Se</t>
+          <t>La0.8Sr0.2CoO3</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>440.55</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/978-3-540-88201-5_24</t>
+          <t>http://dx.doi.org/10.1103/PhysRevB.81.125205</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SrNd0.24Ti0.76O3</t>
+          <t>La2.74Te4</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>445</v>
+        <v>370.37</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jpcs.2004.01.010</t>
+          <t>http://dx.doi.org/10.1021/cm052055b</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Bi86Sb14</t>
+          <t>In0.3Co4Sb12</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>3902.5</v>
+        <v>662.1900000000001</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1126/science.aad3749</t>
+          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Sn.985Na.015Se (hole doped)   B axis</t>
+          <t>Cu3Sb.9Sn.1Se4</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1518.9</v>
+        <v>893.2651530000001</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/adfm.200901817</t>
-        </is>
-      </c>
+      <c r="A361" t="inlineStr"/>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Ba8Ni.84Ga12.07Ge33.09</t>
+          <t>Yb9Mn4.2Sb9</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1017.5</v>
+        <v>314.4654088</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr"/>
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1063/1.1687532</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>YbCd1.4Mg0.6Sb2</t>
+          <t>CaMn6.5Cu0.5O12</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>69.81</v>
+        <v>1.9492</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jssc.2008.08.078</t>
+          <t>http://dx.doi.org/10.1021/cm050412c</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>La0.8Sr0.2CoO3</t>
+          <t>TlTiPS5</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2138</v>
+        <v>6.8966e-05</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevB.81.125205</t>
+          <t>http://dx.doi.org/10.1016/S0925-8388(02)00972-6</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>La2.74Te4</t>
+          <t>Sr0.95La0.05TiO3</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>370.37</v>
+        <v>142.59</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/cm052055b</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2004.05.078</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>In0.3Co4Sb12</t>
+          <t>Zr0.5Hf0.5NiSn1.994Sb0.006</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>662.1900000000001</v>
+        <v>857.63</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.nanoen.2016.11.010</t>
-        </is>
-      </c>
+      <c r="A366" t="inlineStr"/>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Cu3Sb.9Sn.1Se4</t>
+          <t>Cu3SbSe4</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>893.2651530000001</v>
+        <v>25.34080853</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr"/>
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11664-009-0735-1</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Yb9Mn4.2Sb9</t>
+          <t>Mg2Si0.98Bi0.02</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>314.4654088</v>
+        <v>657.89</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.1687532</t>
+          <t>http://dx.doi.org/10.1007/s10854-011-0574-8</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>CaMn6.5Cu0.5O12</t>
+          <t>W0.9O2.7Co0.2O0.3</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>1.9492</v>
+        <v>0.0017825</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/cm050412c</t>
+          <t>http://dx.doi.org/10.1016/S0925-8388(01)01804-7</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>TlTiPS5</t>
+          <t>Fe1.98Sn0.02O3</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>6.8966e-05</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="370">
@@ -5730,768 +5734,649 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Sr0.95La0.05TiO3</t>
+          <t>Sr0.9La0.1TiO3</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>142.59</v>
+        <v>382.52</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2004.05.078</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Zr0.5Hf0.5NiSn1.994Sb0.006</t>
+          <t>Ti0.98Nb0.02NiSn</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>857.63</v>
+        <v>1529.2</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr"/>
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1002/aenm.201900354</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Cu3SbSe4</t>
+          <t>Bi1.90Ta0.10O2</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>25.34080853</v>
+        <v>149.0291262</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s11664-009-0735-1</t>
+          <t>http://dx.doi.org/10.1039/C9TA01962F</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Mg2Si0.98Bi0.02</t>
+          <t>Bi.38Sb1.62Te3+1%(Ge.5Mn.5Te)</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>657.89</v>
+        <v>1988.4</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s10854-011-0574-8</t>
+          <t>http://dx.doi.org/10.1007/s11664-009-0975-0</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>W0.9O2.7Co0.2O0.3</t>
+          <t>Ni2.0Mo6S8</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.0017825</v>
+        <v>1617.4</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/S0925-8388(01)01804-7</t>
-        </is>
-      </c>
+      <c r="A375" t="inlineStr"/>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Fe1.98Sn0.02O3</t>
+          <t>Cu2ZnSnS4</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>10000</v>
+        <v>0.3457</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/S0925-8388(02)00972-6</t>
+          <t>http://dx.doi.org/10.1007/s11664-009-0735-1</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Sr0.9La0.1TiO3</t>
+          <t>Mg2Si0.6Ge0.4Bi0.02</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>382.52</v>
+        <v>666.67</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2008.02.041</t>
+          <t>http://dx.doi.org/10.1103/PhysRevB.81.125205</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Ti0.98Nb0.02NiSn</t>
+          <t>La3Te3.35Bi0.65</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1529.2</v>
+        <v>140.85</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1002/aenm.201900354</t>
-        </is>
-      </c>
+      <c r="A378" t="inlineStr"/>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Bi1.90Ta0.10O2</t>
+          <t>Cu2ZnGeSe4</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>149.0291262</v>
+        <v>41.3565</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/C9TA01962F</t>
+          <t>https://doi.org/10.1002/adfm.200901817</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Bi.38Sb1.62Te3+1%(Ge.5Mn.5Te)</t>
+          <t>Ba8Ni4Ge42</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>1988.4</v>
+        <v>290.18</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s11664-009-0975-0</t>
+          <t>http://dx.doi.org/10.1021/cm050412c</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Ni2.0Mo6S8</t>
+          <t>Tl11.5Sb11.5Cu8Se27</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1617.4</v>
+        <v>4.7619</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr"/>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Cu2ZnSnS4</t>
+          <t>Ti1.0Hf1.0FeNiSb1.7Sn0.3</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.3457</v>
+        <v>317</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s11664-009-0735-1</t>
+          <t>Personal communication</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Mg2Si0.6Ge0.4Bi0.02</t>
+          <t>WO2.9</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>666.67</v>
+        <v>807.6</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevB.81.125205</t>
+          <t>http://dx.doi.org/10.1016/j.jssc.2016.03.032</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>La3Te3.35Bi0.65</t>
+          <t>Bi2YO4Cu2Se2</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>140.85</v>
+        <v>880.1104972000001</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr"/>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Cu2ZnGeSe4</t>
+          <t>Bi0.5Sb1.5Te3</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>41.3565</v>
+        <v>386.765</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/adfm.200901817</t>
+          <t>http://dx.doi.org/10.1007/s11664-009-0815-2</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ba8Ni4Ge42</t>
+          <t>Zn0.97Al0.03O</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>290.18</v>
+        <v>46.74</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/cm050412c</t>
+          <t>http://dx.doi.org/10.1002/aenm.201900354</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tl11.5Sb11.5Cu8Se27</t>
+          <t>Bi1.94Ta0.06O2</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4.7619</v>
+        <v>50</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr"/>
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.ssc.2012.03.013</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ti1.0Hf1.0FeNiSb1.7Sn0.3</t>
+          <t>La1.61Sr0.39Cu0.94Ti0.06O4</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>317</v>
+        <v>312.5</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Personal communication</t>
+          <t>http://dx.doi.org/10.1103/PhysRevB.81.125205</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>WO2.9</t>
+          <t>La3Te3.35Sb0.65</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>807.6</v>
+        <v>55.556</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jssc.2016.03.032</t>
+          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Bi2YO4Cu2Se2</t>
+          <t>Ca0.9In0.1MnO3</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>880.1104972000001</v>
+        <v>4.6513</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="inlineStr"/>
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1038/nature11439</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Bi0.5Sb1.5Te3</t>
+          <t>Pb0.96Sr0.4TeNa0.2</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>386.765</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1007/s11664-009-0815-2</t>
+          <t>http://dx.doi.org/10.1016/j.progsolidstchem.2007.01.027</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Zn0.97Al0.03O</t>
+          <t>SrMn0.96Mo0.04O3</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>46.74</v>
+        <v>64.92700000000001</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1002/aenm.201900354</t>
-        </is>
-      </c>
+      <c r="A392" t="inlineStr"/>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Bi1.94Ta0.06O2</t>
+          <t>Sb1.80In0.20Te3</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>50</v>
+        <v>356.7631592</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.ssc.2012.03.013</t>
+          <t>http://dx.doi.org/10.1016/j.jssc.2008.08.078</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>La1.61Sr0.39Cu0.94Ti0.06O4</t>
+          <t>La0.99Sr0.01CoO3</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>312.5</v>
+        <v>6.368</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr"/>
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1063/1.1687532</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Znx0.06Bi0.46Sb1.54Te3.06</t>
+          <t>Pr0.5Ca0.5MnO3</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1278.7</v>
+        <v>18.087</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevB.81.125205</t>
+          <t>http://dx.doi.org/10.1039/C9TA01962F</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>La3Te3.35Sb0.65</t>
+          <t>Bi.38Sb1.62Te3</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>55.556</v>
+        <v>1182.6</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1006/jssc.1995.1384</t>
+          <t>http://dx.doi.org/10.1103/PhysRevLett.69.2975</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Ca0.9In0.1MnO3</t>
+          <t>La1.85Sr0.15CuO4</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>4.6513</v>
+        <v>887.42</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1038/nature11439</t>
+          <t>http://dx.doi.org/10.1109/ICT.2006.331288</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Pb0.96Sr0.4TeNa0.2</t>
+          <t>CuCr0.96Mg0.04O2</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1473</v>
+        <v>9.3736</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.progsolidstchem.2007.01.027</t>
+          <t>http://dx.doi.org/10.1039/C1JM10827A</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>SrMn0.96Mo0.04O3</t>
+          <t>Mg2Si0.9985Bi0.0015</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>64.92700000000001</v>
+        <v>1219.5</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr"/>
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1063/1.348408</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Sb1.80In0.20Te3</t>
+          <t>Si0.79936Ge0.19984B0.0008</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>356.7631592</v>
+        <v>749.96</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/j.jssc.2008.08.078</t>
-        </is>
-      </c>
+      <c r="A400" t="inlineStr"/>
       <c r="B400" t="inlineStr">
         <is>
-          <t>La0.99Sr0.01CoO3</t>
+          <t>Cu0.99GaTe2</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>6.368</v>
+        <v>162.9785247</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1063/1.1687532</t>
+          <t>http://dx.doi.org/10.1021/cm060261t</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Pr0.5Ca0.5MnO3</t>
+          <t>Yb14MnSb11</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>18.087</v>
+        <v>490.29</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/C9TA01962F</t>
+          <t>http://dx.doi.org/10.1016/j.jallcom.2010.06.195</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Bi.38Sb1.62Te3</t>
+          <t>SrNb0.15Ti0.85O3</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1182.6</v>
+        <v>0.19932</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1103/PhysRevLett.69.2975</t>
+          <t>http://dx.doi.org/10.1109/ICT.1999.843362</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>La1.85Sr0.15CuO4</t>
+          <t>Ba8Ga16Sn30</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>887.42</v>
+        <v>90.09</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1109/ICT.2006.331288</t>
+          <t>http://doi.org/10.7566/JPSJ.85.074702</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>CuCr0.96Mg0.04O2</t>
+          <t>LaOBiS.16Se.04</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>9.3736</v>
+        <v>0.31045</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1039/C1JM10827A</t>
+          <t>http://dx.doi.org/10.1023/A:1018515223271</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Mg2Si0.9985Bi0.0015</t>
+          <t>Ba0.4Sr0.6PbO3</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1219.5</v>
+        <v>242.26</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1063/1.348408</t>
-        </is>
-      </c>
+      <c r="A406" t="inlineStr"/>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Si0.79936Ge0.19984B0.0008</t>
+          <t>Bi0.5Sb1.5Te3+1.0wt%Pb</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>749.96</v>
+        <v>1234.63</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr"/>
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1109/ICT.2006.331288</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Cu0.99GaTe2</t>
+          <t>CuCr0.99Mg0.01O2</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>162.9785247</v>
+        <v>0.16361</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1021/cm060261t</t>
-        </is>
-      </c>
+      <c r="A408" t="inlineStr"/>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Yb14MnSb11</t>
+          <t>Na.96CoO2</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>490.29</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr"/>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Znx0.015Bi0.46Sb1.54Te3.015</t>
+          <t>Cu3Sb0.98Bi0.02S4</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>914.8</v>
+        <v>1.609247506</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1016/j.jallcom.2010.06.195</t>
+          <t>https://doi.org/10.1002/aenm.201502423</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>SrNb0.15Ti0.85O3</t>
+          <t>BiCuSeO</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0.19932</v>
+        <v>4.89331238</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1109/ICT.1999.843362</t>
+          <t>http://dx.doi.org/10.1063/1.2009828</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Ba8Ga16Sn30</t>
+          <t>Ag9TlTe5</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>90.09</v>
+        <v>3.9308</v>
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr"/>
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.jssc.2008.08.078</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Znx0.12Bi0.46Sb1.54Te3.12</t>
+          <t>La0.95Sr0.05CoO3</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1418.9</v>
+        <v>62.661</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>http://doi.org/10.7566/JPSJ.85.074702</t>
+          <t>http://dx.doi.org/10.1002/aenm.201900354</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>LaOBiS.16Se.04</t>
+          <t>Bi1.92Ta0.08O2</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.31045</v>
+        <v>100.4854369</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1023/A:1018515223271</t>
+          <t>http://dx.doi.org/10.1021/cm052055b</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ba0.4Sr0.6PbO3</t>
+          <t>In0.1Co4Sb12</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>242.26</v>
+        <v>342.43</v>
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr"/>
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1039/c3ta12508d</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Bi0.5Sb1.5Te3+1.0wt%Pb</t>
+          <t>Cu1.98Ag.02Te</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1234.63</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1109/ICT.2006.331288</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>CuCr0.99Mg0.01O2</t>
-        </is>
-      </c>
-      <c r="C416" t="n">
-        <v>0.16361</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr"/>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>Na.96CoO2</t>
-        </is>
-      </c>
-      <c r="C417" t="n">
-        <v>92.40000000000001</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr"/>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>Cu3Sb0.98Bi0.02S4</t>
-        </is>
-      </c>
-      <c r="C418" t="n">
-        <v>1.609247506</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/aenm.201502423</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>BiCuSeO</t>
-        </is>
-      </c>
-      <c r="C419" t="n">
-        <v>4.89331238</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1063/1.2009828</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>Ag9TlTe5</t>
-        </is>
-      </c>
-      <c r="C420" t="n">
-        <v>3.9308</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/j.jssc.2008.08.078</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>La0.95Sr0.05CoO3</t>
-        </is>
-      </c>
-      <c r="C421" t="n">
-        <v>62.661</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1002/aenm.201900354</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>Bi1.92Ta0.08O2</t>
-        </is>
-      </c>
-      <c r="C422" t="n">
-        <v>100.4854369</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1021/cm052055b</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>In0.1Co4Sb12</t>
-        </is>
-      </c>
-      <c r="C423" t="n">
-        <v>342.43</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1039/c3ta12508d</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>Cu1.98Ag.02Te</t>
-        </is>
-      </c>
-      <c r="C424" t="n">
         <v>2355</v>
       </c>
     </row>
